--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434084.0963075265</v>
+        <v>432072.8273217528</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>16636980.42967734</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129928</v>
+        <v>2069122.084925924</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6693731.06157979</v>
+        <v>7348012.910005931</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2240507450801806</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>167.7240627510931</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>122.9229677259529</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>163.7964826031602</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>257.4721090433966</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,22 +1135,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>191.7079826231977</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>34.75529100421647</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>63.44644813676862</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>235.9729266278425</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>85.54275136626532</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.114477747103</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2011,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.1441627534537</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>152.5168019860612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.16791248334739</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2041.481161720201</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.481161720201</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.571376894645</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F2" t="n">
         <v>743.9292024621484</v>
@@ -4331,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304467</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.767285420548</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.767285420548</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>2449.767285420548</v>
+        <v>1170.228772947056</v>
       </c>
       <c r="Y2" t="n">
-        <v>2041.481161720201</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C4" t="n">
-        <v>617.3126187870138</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1177.703947303853</v>
+        <v>1494.302298075942</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.703947303853</v>
+        <v>1056.159825259365</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.703947303853</v>
+        <v>620.2500404338093</v>
       </c>
       <c r="E5" t="n">
-        <v>743.9292024621484</v>
+        <v>620.2500404338093</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4601,16 +4603,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2409.987989013855</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W5" t="n">
-        <v>2005.132534424889</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1585.9900710042</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1177.703947303853</v>
+        <v>1494.302298075942</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>648.8602641703436</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>648.8602641703436</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>648.8602641703436</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>648.8602641703436</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G8" t="n">
-        <v>247.4624327936075</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4877,25 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="O9" t="n">
         <v>1599.468199913098</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,7 +4989,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
         <v>2264.94001130788</v>
@@ -4996,16 +4998,16 @@
         <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
         <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1607.706416878496</v>
+        <v>1870.785933715978</v>
       </c>
       <c r="C11" t="n">
-        <v>1607.706416878496</v>
+        <v>1432.643460899402</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.796632052941</v>
+        <v>996.7336760738463</v>
       </c>
       <c r="E11" t="n">
-        <v>1171.796632052941</v>
+        <v>562.9589312321414</v>
       </c>
       <c r="F11" t="n">
-        <v>743.9292024621484</v>
+        <v>135.0915016413491</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5313710854123</v>
+        <v>71.00418029107777</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>71.00418029107777</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>505.8420783711357</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>2154.560885118898</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>2154.560885118898</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>2154.560885118898</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>2154.560885118898</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>2982.870759952294</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="R11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="V11" t="n">
-        <v>2431.704334888153</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="W11" t="n">
-        <v>2026.848880299186</v>
+        <v>3124.514091321922</v>
       </c>
       <c r="X11" t="n">
-        <v>1607.706416878496</v>
+        <v>2705.371627901233</v>
       </c>
       <c r="Y11" t="n">
-        <v>1607.706416878496</v>
+        <v>2297.085504200886</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.5729615199214</v>
+        <v>576.7591359095105</v>
       </c>
       <c r="C12" t="n">
-        <v>453.1165003565636</v>
+        <v>470.3026747461528</v>
       </c>
       <c r="D12" t="n">
-        <v>358.0262115031169</v>
+        <v>375.2123858927061</v>
       </c>
       <c r="E12" t="n">
-        <v>263.9057968300706</v>
+        <v>281.0919712196598</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5219584462322</v>
+        <v>197.7081328358214</v>
       </c>
       <c r="G12" t="n">
-        <v>95.13686871241609</v>
+        <v>112.3230431020053</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="J12" t="n">
-        <v>404.0232146552985</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>914.1039859178284</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>914.1039859178284</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>914.1039859178284</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>914.1039859178284</v>
       </c>
       <c r="P12" t="n">
-        <v>1058.729261281022</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="Q12" t="n">
-        <v>1599.468199913098</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="R12" t="n">
-        <v>1716.640978007438</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="S12" t="n">
-        <v>1653.185540455821</v>
+        <v>1670.37171484541</v>
       </c>
       <c r="T12" t="n">
-        <v>1523.006896786422</v>
+        <v>1540.193071176011</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.67034978639</v>
+        <v>1363.85652417598</v>
       </c>
       <c r="V12" t="n">
-        <v>1147.55283184839</v>
+        <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>962.2300775815838</v>
+        <v>979.4162519711729</v>
       </c>
       <c r="X12" t="n">
-        <v>807.3626418204638</v>
+        <v>824.5488162100529</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8768625996845</v>
+        <v>698.0630369892737</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>1149.645551530099</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>977.083840013324</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>811.2058472148467</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>641.447843465584</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>464.7407894273402</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>299.1495144531679</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>159.2473401435424</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>157.1670760829076</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>431.9255306540432</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>850.1354124220042</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.433105213328</v>
+        <v>1309.619279602917</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2154.361157596754</v>
+        <v>2171.547331986343</v>
       </c>
       <c r="P13" t="n">
-        <v>2501.868051567096</v>
+        <v>2519.054225956685</v>
       </c>
       <c r="Q13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.821657388744</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.942210967199</v>
+        <v>2441.367554399472</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.509210220304</v>
+        <v>2373.257508144844</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>2086.302000015274</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1814.275595601566</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1568.883840934978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>1341.464170249086</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1437.776784721425</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1437.776784721425</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1001.86699989587</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>568.092255054165</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>140.2248254633727</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1810.336013065103</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842461</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421772</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.776784721425</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>714.2412710704069</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>714.2412710704069</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N15" t="n">
-        <v>714.2412710704069</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O15" t="n">
-        <v>1375.081325612185</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.2158372782247</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>455.2158372782247</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>455.2158372782247</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>455.2158372782247</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>455.2158372782247</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>53.81800590148855</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2410.838523748444</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.221573682271</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>1643.366119093304</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1224.223655672615</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>815.9375319722682</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.4772326516127</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>568.9155211348376</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>403.0375283363603</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>233.2795245870976</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2648.6430051368</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2489.401636434797</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.522190013252</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>1965.089189266357</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1678.133681136788</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.107276723079</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1160.715522056492</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>933.2958513705998</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>502.6211945723459</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1336.971486530524</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5940,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="29">
@@ -6464,28 +6466,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6543,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1162.814665109382</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6888,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="41">
@@ -7397,37 +7399,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
         <v>4943.887948785924</v>
@@ -7448,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7591,7 +7593,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S43" t="n">
         <v>2700.681281130895</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>714.2412710704069</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612185</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2035.921380153963</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2670.060826431428</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2250.918363010739</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1512.992809943912</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1406.536348780554</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1311.446059927107</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1217.325645254061</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1133.941806870223</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1048.556717136407</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1006.821064952619</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1032.884738113077</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1032.884738113077</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1032.884738113077</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1231.207939253532</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1892.04799379531</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2552.888048337089</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2552.888048337089</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2552.888048337089</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.888048337089</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2670.060826431428</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2606.605388879811</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2476.426745210413</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2300.090198210381</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2100.97268027238</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1915.649926005574</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1760.782490244454</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1634.296711023675</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516122</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887846</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903073</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410446</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028008</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862846</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862846</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862846</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056491</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705994</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,19 +8534,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847603</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>822.5944593834181</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>145.5272350047205</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9009,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>404.4043982844104</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.7667298204315</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>247.2269760353893</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>47.91312667565441</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22784,22 +22786,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>259.7922726917241</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22841,13 +22843,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>101.5186715221151</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23021,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>94.53087038801817</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>366.0516090388605</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.9374049262001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>123.0178539376692</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>311.8411016967034</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.92209703295566</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24178,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>18.31929241554607</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081301</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>369.0353499799957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456901.491009046</v>
+        <v>456901.4910090461</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456901.491009046</v>
+        <v>546558.4063223149</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456901.4910090461</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456901.491009046</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711792.6057379781</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456901.4910090461</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>152186.0528060573</v>
+      </c>
+      <c r="C2" t="n">
+        <v>152186.0528060573</v>
+      </c>
+      <c r="D2" t="n">
         <v>152186.0528060574</v>
       </c>
-      <c r="C2" t="n">
-        <v>152186.0528060574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>152186.0528060573</v>
-      </c>
       <c r="E2" t="n">
-        <v>152186.0528060574</v>
+        <v>182049.2340755254</v>
       </c>
       <c r="F2" t="n">
-        <v>152186.0528060574</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="G2" t="n">
-        <v>152186.0528060573</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="H2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="I2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>237085.9128618086</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>237085.9128618085</v>
-      </c>
-      <c r="K2" t="n">
-        <v>237085.9128618086</v>
       </c>
       <c r="L2" t="n">
         <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="N2" t="n">
         <v>237085.9128618086</v>
@@ -26353,7 +26355,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="P2" t="n">
-        <v>152186.0528060574</v>
+        <v>237085.9128618086</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64142.66971118459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113440.8343649017</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53535.79253228986</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96971.03661968646</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>17770.48083418235</v>
       </c>
       <c r="E4" t="n">
-        <v>17770.48083418235</v>
+        <v>21257.54867392115</v>
       </c>
       <c r="F4" t="n">
-        <v>17770.48083418235</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>17770.48083418235</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26457,7 +26459,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>17770.48083418235</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>53646.4170978455</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-163496.6511739276</v>
       </c>
       <c r="C6" t="n">
-        <v>60203.0474101173</v>
+        <v>60203.04741011726</v>
       </c>
       <c r="D6" t="n">
-        <v>60203.04741011727</v>
+        <v>60203.04741011729</v>
       </c>
       <c r="E6" t="n">
-        <v>93830.64741011729</v>
+        <v>43002.59859257416</v>
       </c>
       <c r="F6" t="n">
-        <v>93830.64741011732</v>
+        <v>18242.76114091165</v>
       </c>
       <c r="G6" t="n">
-        <v>93830.64741011726</v>
+        <v>131683.5955058134</v>
       </c>
       <c r="H6" t="n">
-        <v>-33100.98227226218</v>
+        <v>131683.5955058134</v>
       </c>
       <c r="I6" t="n">
-        <v>131683.5955058134</v>
+        <v>131683.5955058133</v>
       </c>
       <c r="J6" t="n">
-        <v>-42967.75321189284</v>
+        <v>-42967.75321189279</v>
       </c>
       <c r="K6" t="n">
-        <v>131683.5955058134</v>
+        <v>131683.5955058133</v>
       </c>
       <c r="L6" t="n">
         <v>131683.5955058133</v>
       </c>
       <c r="M6" t="n">
-        <v>131683.5955058133</v>
+        <v>78147.8029735235</v>
       </c>
       <c r="N6" t="n">
-        <v>131683.5955058134</v>
+        <v>34712.55888612691</v>
       </c>
       <c r="O6" t="n">
         <v>131683.5955058133</v>
       </c>
       <c r="P6" t="n">
-        <v>93830.64741011729</v>
+        <v>131683.5955058134</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>882.3423864777221</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27018,16 +27020,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>214.8271798698651</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>395.9181169070232</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070232</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070232</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847603</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>822.5944593834181</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>145.5272350047205</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O15" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>404.4043982844104</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36200,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36376,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>667.515206607857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>667.5152066078568</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>640.5448952297625</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432072.8273217528</v>
+        <v>429950.6882006975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16636980.42967734</v>
+        <v>16636980.42967733</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7348012.910005931</v>
+        <v>7348012.910005933</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>251.637889245679</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>167.7240627510931</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598887</v>
+        <v>24.62703520776616</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>163.7964826031602</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>230.13219323232</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170476</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1135,22 +1135,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>264.4599101774941</v>
       </c>
       <c r="W8" t="n">
-        <v>34.75529100421647</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170431</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>23.19373452748712</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>63.44644813676862</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>743.9292024621484</v>
+        <v>1615.407905119212</v>
       </c>
       <c r="C2" t="n">
-        <v>743.9292024621484</v>
+        <v>1177.265432302635</v>
       </c>
       <c r="D2" t="n">
-        <v>743.9292024621484</v>
+        <v>741.3556474770799</v>
       </c>
       <c r="E2" t="n">
-        <v>743.9292024621484</v>
+        <v>307.580902635375</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>307.580902635375</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>307.580902635375</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="X2" t="n">
-        <v>1170.228772947056</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1170.228772947056</v>
+        <v>2041.70747560412</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705998</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705998</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1494.302298075942</v>
+        <v>1583.409936627409</v>
       </c>
       <c r="C5" t="n">
-        <v>1056.159825259365</v>
+        <v>1583.409936627409</v>
       </c>
       <c r="D5" t="n">
-        <v>620.2500404338093</v>
+        <v>1147.500151801853</v>
       </c>
       <c r="E5" t="n">
-        <v>620.2500404338093</v>
+        <v>713.7254069601481</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>285.8579773693559</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4585,10 +4585,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4600,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365255</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="X5" t="n">
-        <v>1902.588421776288</v>
+        <v>1991.696060327755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1494.302298075942</v>
+        <v>1583.409936627409</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
         <v>1149.495958523325</v>
@@ -4819,13 +4819,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2402.929604029919</v>
       </c>
       <c r="W8" t="n">
-        <v>2634.954471881715</v>
+        <v>1998.074149440952</v>
       </c>
       <c r="X8" t="n">
-        <v>2215.812008461025</v>
+        <v>1578.931686020263</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1170.645562319916</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462403</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294652</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309879</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817252</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>77.9902918434814</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729424</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431415</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.133343351119</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652275</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1870.785933715978</v>
+        <v>2095.828766922491</v>
       </c>
       <c r="C11" t="n">
-        <v>1432.643460899402</v>
+        <v>1657.686294105914</v>
       </c>
       <c r="D11" t="n">
-        <v>996.7336760738463</v>
+        <v>1221.776509280359</v>
       </c>
       <c r="E11" t="n">
-        <v>562.9589312321414</v>
+        <v>788.0017644386538</v>
       </c>
       <c r="F11" t="n">
-        <v>135.0915016413491</v>
+        <v>360.1343348478616</v>
       </c>
       <c r="G11" t="n">
-        <v>71.00418029107777</v>
+        <v>360.1343348478616</v>
       </c>
       <c r="H11" t="n">
-        <v>71.00418029107777</v>
+        <v>71.00418029107782</v>
       </c>
       <c r="I11" t="n">
-        <v>70.58739091821778</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J11" t="n">
         <v>505.8420783711357</v>
@@ -5047,46 +5047,46 @@
         <v>1340.192370329314</v>
       </c>
       <c r="L11" t="n">
-        <v>2154.560885118898</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="M11" t="n">
-        <v>2154.560885118898</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.560885118898</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="O11" t="n">
-        <v>2154.560885118898</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="P11" t="n">
-        <v>2982.870759952294</v>
+        <v>2982.870759952297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3529.369545910889</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="R11" t="n">
-        <v>3529.369545910889</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>3529.369545910889</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="T11" t="n">
-        <v>3529.369545910889</v>
+        <v>3309.30231878393</v>
       </c>
       <c r="U11" t="n">
-        <v>3529.369545910889</v>
+        <v>3309.30231878393</v>
       </c>
       <c r="V11" t="n">
-        <v>3529.369545910889</v>
+        <v>2946.685368717756</v>
       </c>
       <c r="W11" t="n">
-        <v>3124.514091321922</v>
+        <v>2946.685368717756</v>
       </c>
       <c r="X11" t="n">
-        <v>2705.371627901233</v>
+        <v>2527.542905297067</v>
       </c>
       <c r="Y11" t="n">
-        <v>2297.085504200886</v>
+        <v>2119.25678159672</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7591359095105</v>
+        <v>576.7591359095106</v>
       </c>
       <c r="C12" t="n">
-        <v>470.3026747461528</v>
+        <v>470.3026747461529</v>
       </c>
       <c r="D12" t="n">
-        <v>375.2123858927061</v>
+        <v>375.2123858927062</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0919712196598</v>
+        <v>281.0919712196599</v>
       </c>
       <c r="F12" t="n">
-        <v>197.7081328358214</v>
+        <v>197.7081328358215</v>
       </c>
       <c r="G12" t="n">
-        <v>112.3230431020053</v>
+        <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>70.58739091821778</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>70.58739091821778</v>
+        <v>96.65106407867542</v>
       </c>
       <c r="J12" t="n">
-        <v>70.58739091821778</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="K12" t="n">
-        <v>70.58739091821778</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="L12" t="n">
-        <v>914.1039859178284</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="M12" t="n">
-        <v>914.1039859178284</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="N12" t="n">
-        <v>914.1039859178284</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="O12" t="n">
-        <v>914.1039859178284</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="P12" t="n">
-        <v>1733.827152397027</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="Q12" t="n">
-        <v>1733.827152397027</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="R12" t="n">
         <v>1733.827152397027</v>
@@ -5159,13 +5159,13 @@
         <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>979.4162519711729</v>
+        <v>979.4162519711731</v>
       </c>
       <c r="X12" t="n">
-        <v>824.5488162100529</v>
+        <v>824.548816210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0630369892737</v>
+        <v>698.0630369892738</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.645551530099</v>
+        <v>921.0834279951491</v>
       </c>
       <c r="C13" t="n">
-        <v>977.083840013324</v>
+        <v>748.5217164783741</v>
       </c>
       <c r="D13" t="n">
-        <v>811.2058472148467</v>
+        <v>582.6437236798968</v>
       </c>
       <c r="E13" t="n">
-        <v>641.447843465584</v>
+        <v>412.885719930634</v>
       </c>
       <c r="F13" t="n">
-        <v>464.7407894273402</v>
+        <v>236.1786658923901</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1495144531679</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H13" t="n">
-        <v>159.2473401435424</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I13" t="n">
-        <v>70.58739091821778</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1670760829076</v>
+        <v>157.1670760829077</v>
       </c>
       <c r="K13" t="n">
-        <v>431.9255306540432</v>
+        <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>850.1354124220042</v>
+        <v>850.1354124220043</v>
       </c>
       <c r="M13" t="n">
         <v>1309.619279602917</v>
@@ -5214,37 +5214,37 @@
         <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.547331986343</v>
+        <v>2171.547331986344</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.054225956685</v>
+        <v>2519.054225956686</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2687.247000821017</v>
+        <v>2669.007831778333</v>
       </c>
       <c r="T13" t="n">
-        <v>2441.367554399472</v>
+        <v>2423.128385356788</v>
       </c>
       <c r="U13" t="n">
-        <v>2373.257508144844</v>
+        <v>2144.695384609894</v>
       </c>
       <c r="V13" t="n">
-        <v>2086.302000015274</v>
+        <v>1857.739876480324</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.275595601566</v>
+        <v>1585.713472066616</v>
       </c>
       <c r="X13" t="n">
-        <v>1568.883840934978</v>
+        <v>1340.321717400028</v>
       </c>
       <c r="Y13" t="n">
-        <v>1341.464170249086</v>
+        <v>1112.902046714136</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5469,19 +5469,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>502.6211945723459</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1336.971486530524</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2412.031452783383</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7086,7 +7086,7 @@
         <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,43 +7420,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>868.8551150562604</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7836,22 +7836,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2543.461783934675</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2265.02878318778</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1978.07327505821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>316.3899266744752</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>226.6534083847599</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>822.5944593834181</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>404.4043982844104</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11068,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34.6009637655369</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>247.2269760353893</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060378</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>259.7922726917241</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>167.2516598306487</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22840,16 +22840,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>94.53087038801766</v>
       </c>
       <c r="W8" t="n">
-        <v>366.0516090388605</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627263</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>398.8428402525716</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.9374049262001</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>63.4301651713668</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>120.4463752142721</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
-        <v>69.71657238081301</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456901.4910090461</v>
+        <v>456901.491009046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456901.4910090461</v>
+        <v>456901.491009046</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546558.4063223149</v>
+        <v>546558.4063223151</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711792.6057379781</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711792.6057379781</v>
+        <v>711792.6057379782</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711792.6057379782</v>
+        <v>711792.6057379781</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>152186.0528060573</v>
       </c>
       <c r="C2" t="n">
-        <v>152186.0528060573</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="D2" t="n">
         <v>152186.0528060574</v>
       </c>
       <c r="E2" t="n">
-        <v>182049.2340755254</v>
+        <v>182049.2340755255</v>
       </c>
       <c r="F2" t="n">
         <v>237085.9128618086</v>
@@ -26337,25 +26337,25 @@
         <v>237085.9128618085</v>
       </c>
       <c r="J2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
         <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="M2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>237085.9128618085</v>
+      </c>
+      <c r="O2" t="n">
         <v>237085.9128618086</v>
       </c>
-      <c r="N2" t="n">
-        <v>237085.9128618086</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>237085.9128618085</v>
-      </c>
-      <c r="P2" t="n">
-        <v>237085.9128618086</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64142.66971118459</v>
+        <v>64142.66971118481</v>
       </c>
       <c r="F3" t="n">
-        <v>113440.8343649017</v>
+        <v>113440.8343649015</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53535.79253228986</v>
+        <v>53535.79253229006</v>
       </c>
       <c r="N3" t="n">
-        <v>96971.03661968646</v>
+        <v>96971.0366196863</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>17770.48083418235</v>
       </c>
       <c r="D4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="E4" t="n">
-        <v>21257.54867392115</v>
+        <v>21257.54867392117</v>
       </c>
       <c r="F4" t="n">
         <v>27684.07875020268</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53646.4170978455</v>
+        <v>53646.41709784554</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163496.6511739276</v>
+        <v>-163991.5414025089</v>
       </c>
       <c r="C6" t="n">
-        <v>60203.04741011726</v>
+        <v>59708.15718153604</v>
       </c>
       <c r="D6" t="n">
-        <v>60203.04741011729</v>
+        <v>59708.15718153604</v>
       </c>
       <c r="E6" t="n">
-        <v>43002.59859257416</v>
+        <v>42673.61492660084</v>
       </c>
       <c r="F6" t="n">
-        <v>18242.76114091165</v>
+        <v>18219.53680152917</v>
       </c>
       <c r="G6" t="n">
-        <v>131683.5955058134</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="H6" t="n">
-        <v>131683.5955058134</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="I6" t="n">
-        <v>131683.5955058133</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="J6" t="n">
-        <v>-42967.75321189279</v>
+        <v>-42990.97755127545</v>
       </c>
       <c r="K6" t="n">
-        <v>131683.5955058133</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="L6" t="n">
-        <v>131683.5955058133</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="M6" t="n">
-        <v>78147.8029735235</v>
+        <v>78124.57863414063</v>
       </c>
       <c r="N6" t="n">
-        <v>34712.55888612691</v>
+        <v>34689.33454674437</v>
       </c>
       <c r="O6" t="n">
-        <v>131683.5955058133</v>
+        <v>131660.3711664307</v>
       </c>
       <c r="P6" t="n">
-        <v>131683.5955058134</v>
+        <v>131660.3711664307</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>882.3423864777221</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>214.8271798698651</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="F4" t="n">
-        <v>395.9181169070232</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698651</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070232</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698651</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070232</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>316.3899266744752</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>226.6534083847599</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>822.5944593834181</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>404.4043982844104</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36378,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
